--- a/src/ExcelsiorClosedXml.Tests/Tests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Nulls.verified.xlsx
@@ -105,11 +105,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -415,11 +415,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.282054" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="7.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">

--- a/src/ExcelsiorClosedXml.Tests/Tests.Nulls.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Nulls.verified.xlsx
@@ -31,9 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Bool</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -440,37 +437,27 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="C2" s="1"/>
+      <x:c r="D2" s="1"/>
+      <x:c r="E2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>43831</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
